--- a/auxiliares/dicionario_inclusao.xlsx
+++ b/auxiliares/dicionario_inclusao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\MDS\auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC642729-6383-4966-9A53-A37F0EE6769E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65F33FE-393D-4591-BB85-E6616401E501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18720" xr2:uid="{C69FF463-1783-4298-95DD-AFD0A9C93CE9}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C69FF463-1783-4298-95DD-AFD0A9C93CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha2" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Nos ultimos 3 meses usou a internet para</t>
   </si>
@@ -177,26 +177,13 @@
   </si>
   <si>
     <t>S07004A3</t>
-  </si>
-  <si>
-    <t>Recebe BF</t>
-  </si>
-  <si>
-    <t>Não Recebe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,11 +224,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -253,13 +239,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -571,30 +553,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABEF6E7F-8AE3-4202-A350-44BAB43388FE}">
-  <dimension ref="B2:H27"/>
+  <dimension ref="B3:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.3828125" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="11.921875" style="1" customWidth="1"/>
     <col min="3" max="3" width="42.3046875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.84375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.921875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="41.53515625" customWidth="1"/>
+    <col min="6" max="6" width="41.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="E2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:4" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
         <v>25</v>
       </c>
@@ -604,14 +576,8 @@
       <c r="D3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="6">
-        <v>7.3943081167827801E-2</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0.37708414104221299</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4" s="4"/>
       <c r="C4" s="2" t="s">
         <v>27</v>
@@ -619,14 +585,8 @@
       <c r="D4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="6">
-        <v>2.0103145052696499E-2</v>
-      </c>
-      <c r="F4" s="6">
-        <v>7.9807683271228294E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="4"/>
       <c r="C5" s="2" t="s">
         <v>28</v>
@@ -634,14 +594,8 @@
       <c r="D5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="6">
-        <v>0.99354907139688098</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0.988326547083893</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="4"/>
       <c r="C6" s="2" t="s">
         <v>29</v>
@@ -649,14 +603,8 @@
       <c r="D6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="6">
-        <v>0.301875150745892</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0.488161503042642</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="4"/>
       <c r="C7" s="2" t="s">
         <v>30</v>
@@ -664,14 +612,8 @@
       <c r="D7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="6">
-        <v>2.55624954508183E-3</v>
-      </c>
-      <c r="F7" s="6">
-        <v>1.8137713077784199E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
         <v>0</v>
       </c>
@@ -681,14 +623,8 @@
       <c r="D9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="6">
-        <v>0.39404894517390698</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0.60911755623769204</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="2:4" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B10" s="4"/>
       <c r="C10" s="2" t="s">
         <v>19</v>
@@ -696,14 +632,8 @@
       <c r="D10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="6">
-        <v>8.9285191789749405E-2</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0.12258894572358101</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B11" s="4"/>
       <c r="C11" s="2" t="s">
         <v>18</v>
@@ -711,14 +641,8 @@
       <c r="D11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="6">
-        <v>0.20329367529195899</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0.34395032712427298</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="2:4" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B12" s="4"/>
       <c r="C12" s="2" t="s">
         <v>1</v>
@@ -726,15 +650,8 @@
       <c r="D12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="6">
-        <v>0.50325517290806598</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0.60829478317157204</v>
-      </c>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="2:8" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="2:4" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B13" s="4"/>
       <c r="C13" s="2" t="s">
         <v>17</v>
@@ -742,14 +659,8 @@
       <c r="D13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="6">
-        <v>0.91423940751666599</v>
-      </c>
-      <c r="F13" s="6">
-        <v>0.92023728133666904</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B14" s="4"/>
       <c r="C14" s="2" t="s">
         <v>3</v>
@@ -757,14 +668,8 @@
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="6">
-        <v>0.95230577637526104</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0.94299429780645505</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="2:4" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B15" s="4"/>
       <c r="C15" s="2" t="s">
         <v>5</v>
@@ -772,14 +677,8 @@
       <c r="D15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="6">
-        <v>0.83166186098287698</v>
-      </c>
-      <c r="F15" s="6">
-        <v>0.88722703061807395</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="2:4" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B16" s="4"/>
       <c r="C16" s="2" t="s">
         <v>7</v>
@@ -787,14 +686,8 @@
       <c r="D16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="6">
-        <v>0.81107650807662601</v>
-      </c>
-      <c r="F16" s="6">
-        <v>0.83827812095587295</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="4"/>
       <c r="C17" s="2" t="s">
         <v>9</v>
@@ -802,14 +695,8 @@
       <c r="D17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="6">
-        <v>0.77672234667093898</v>
-      </c>
-      <c r="F17" s="6">
-        <v>0.82808292006168505</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="4"/>
       <c r="C18" s="2" t="s">
         <v>11</v>
@@ -817,14 +704,8 @@
       <c r="D18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="6">
-        <v>0.61096213046214598</v>
-      </c>
-      <c r="F18" s="6">
-        <v>0.73156587415377194</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="58.3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="2:4" ht="58.3" x14ac:dyDescent="0.4">
       <c r="B19" s="4"/>
       <c r="C19" s="2" t="s">
         <v>13</v>
@@ -832,14 +713,8 @@
       <c r="D19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="6">
-        <v>0.182021484081893</v>
-      </c>
-      <c r="F19" s="6">
-        <v>0.335121009269986</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="43.75" x14ac:dyDescent="0.4">
+    </row>
+    <row r="20" spans="2:4" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B20" s="4"/>
       <c r="C20" s="2" t="s">
         <v>15</v>
@@ -847,14 +722,8 @@
       <c r="D20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="6">
-        <v>0.25248807403475798</v>
-      </c>
-      <c r="F20" s="6">
-        <v>0.432595608103998</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="31.85" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="22" spans="2:4" ht="31.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="4" t="s">
         <v>43</v>
       </c>
@@ -864,14 +733,8 @@
       <c r="D22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="6">
-        <v>4.6650816226716199E-2</v>
-      </c>
-      <c r="F22" s="6">
-        <v>9.2614057674862499E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="31.85" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="2:4" ht="31.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="4"/>
       <c r="C23" s="2" t="s">
         <v>37</v>
@@ -879,14 +742,8 @@
       <c r="D23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="6">
-        <v>5.7273432220032998E-2</v>
-      </c>
-      <c r="F23" s="6">
-        <v>5.1086875010221397E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="31.85" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="2:4" ht="31.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="4"/>
       <c r="C24" s="2" t="s">
         <v>38</v>
@@ -894,39 +751,21 @@
       <c r="D24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="6">
-        <v>5.40877599976161E-2</v>
-      </c>
-      <c r="F24" s="6">
-        <v>5.5470171325029599E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C26" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="6">
-        <v>0.87364163577149301</v>
-      </c>
-      <c r="F26" s="6">
-        <v>0.86461111873787</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="27" spans="2:4" ht="29.15" x14ac:dyDescent="0.4">
       <c r="C27" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="E27" s="6">
-        <v>0.95736385756079101</v>
-      </c>
-      <c r="F27" s="6">
-        <v>0.96091298380954204</v>
       </c>
     </row>
   </sheetData>
